--- a/addons/custom/forlife_stock/static/src/xlsx/template_ycdc.xlsx
+++ b/addons/custom/forlife_stock/static/src/xlsx/template_ycdc.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Project\m_onnet_odoo_mfl2201er\addons\custom\forlife_stock\static\src\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BE4775-740C-46CA-9945-6B2BFA1EB195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59422E1-E67E-4226-8D8B-5B54033AE150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{568D4FBB-6B03-477C-9ADA-02213CA4C781}"/>
   </bookViews>
@@ -30,24 +30,6 @@
     <t>Cái</t>
   </si>
   <si>
-    <t>Hạn xử lý</t>
-  </si>
-  <si>
-    <t>Yêu cầu / Sản phẩm</t>
-  </si>
-  <si>
-    <t>Yêu cầu / Số lượng yêu cầu</t>
-  </si>
-  <si>
-    <t>Yêu cầu / Đơn vị</t>
-  </si>
-  <si>
-    <t>Yêu cầu/ Từ kho</t>
-  </si>
-  <si>
-    <t>Yêu cầu / Đến kho</t>
-  </si>
-  <si>
     <t>Yêu cầu / Từ LSX</t>
   </si>
   <si>
@@ -67,6 +49,96 @@
   </si>
   <si>
     <t>AHD01</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hạn xử lý </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yêu cầu / Sản phẩm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yêu cầu / Số lượng yêu cầu </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Yêu cầu / Đơn vị</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yêu cầu/ Từ kho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Yêu cầu / Đến kho </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(*)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -76,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +176,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -166,7 +245,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -194,7 +273,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,38 +597,38 @@
   <cols>
     <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.77734375" customWidth="1"/>
     <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.21875" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -558,7 +636,7 @@
         <v>45146.708333333336</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6">
         <v>10</v>
@@ -573,16 +651,16 @@
         <v>999</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C3" s="6">
         <v>10</v>
@@ -597,10 +675,10 @@
         <v>999</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -608,7 +686,7 @@
         <v>45178.708333333336</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
         <v>20</v>
@@ -623,16 +701,16 @@
         <v>999</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6">
         <v>25</v>
@@ -647,13 +725,14 @@
         <v>999</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>